--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.11_Student_Input_Left_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.11_Student_Input_Left_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36C77D-D8BB-4CA7-BD23-12F81045BF21}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5493C-A3C3-442C-AC26-72418E4CF940}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,41 +154,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color rgb="FFCAE8FF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCAE8FF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal style="thin">
-        <color rgb="FFCAE8FF"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCAE8FF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -211,12 +181,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,14 +524,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -701,272 +665,286 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43677</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>700</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7770</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43652</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <v>450</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2350</v>
-      </c>
-      <c r="F14" s="7"/>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43666</v>
+        <v>43652</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E15" s="7">
-        <v>1600</v>
+        <v>2350</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>750</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1600</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>43670</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7">
+      <c r="B17" s="5"/>
+      <c r="C17" s="7">
         <v>3800</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>5400</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43648</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
-        <v>250</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
-        <v>280</v>
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43654</v>
+        <v>43648</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="7">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
-        <v>30</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43660</v>
+        <v>43654</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
-        <v>150</v>
-      </c>
+      <c r="C22" s="7">
+        <v>250</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43663</v>
+        <v>43660</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>43663</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4">
+        <v>43617</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>10000</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="2"/>
+    <row r="30" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>4</v>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43646</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7">
+        <v>1405</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,50 +955,73 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+    <row r="35" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4">
+        <v>43677</v>
+      </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="C38" s="7">
+        <v>700</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="7">
+        <v>700</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -1044,240 +1045,234 @@
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43677</v>
+        <v>43651</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="7">
-        <v>700</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7">
+        <v>250</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="7">
-        <v>700</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43670</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="F43" s="7">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>43651</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7">
-        <v>250</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="7">
-        <v>250</v>
+      <c r="C46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43670</v>
+        <v>43659</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <v>3800</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="7">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="C47" s="7">
+        <v>600</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7">
+        <v>600</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43673</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="7">
+        <v>600</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="3"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>43659</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="7">
-        <v>600</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7">
-        <v>600</v>
-      </c>
-      <c r="F51" s="7"/>
+      <c r="C51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43673</v>
+        <v>43648</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="7">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>43660</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="7">
+        <v>150</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7">
+        <v>400</v>
+      </c>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>43663</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="7">
+        <v>50</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7">
+        <v>450</v>
+      </c>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>43648</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="7">
-        <v>250</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7">
-        <v>250</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>43660</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="7">
-        <v>150</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7">
-        <v>400</v>
-      </c>
-      <c r="F57" s="7"/>
+      <c r="C57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43663</v>
+        <v>43671</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="7">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7">
-        <v>450</v>
-      </c>
-      <c r="F58" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F59" s="2"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="A60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
@@ -1301,80 +1296,31 @@
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43671</v>
+        <v>43668</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="7">
-        <v>145</v>
-      </c>
-      <c r="D62" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D62" s="8"/>
       <c r="E62" s="7">
-        <v>145</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>43668</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="7">
         <v>20</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="7">
-        <v>20</v>
-      </c>
-      <c r="F66" s="8"/>
+      <c r="F62" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A56:F56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
